--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Affle India Ltd/Pruned_Excel/Final_Parameters/Semi_Final/Affle India Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Affle India Ltd/Pruned_Excel/Final_Parameters/Semi_Final/Affle India Ltd_Semi_Final.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="108">
   <si>
     <t>Balance Sheet of Affle India(in Rs. Cr.)</t>
   </si>
@@ -185,6 +185,12 @@
     <t>Quarterly Results of Affle India(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>Net sales/income from operations</t>
   </si>
   <si>
@@ -239,79 +245,49 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>Sep 18 Q2</t>
-  </si>
-  <si>
-    <t>Dec 18 Q3</t>
-  </si>
-  <si>
-    <t>Mar 19 Q4</t>
-  </si>
-  <si>
-    <t>Jun 19 Q1</t>
-  </si>
-  <si>
-    <t>Sep 19 Q2</t>
-  </si>
-  <si>
-    <t>Dec 19 Q3</t>
-  </si>
-  <si>
-    <t>Mar 20 Q4</t>
-  </si>
-  <si>
-    <t>Jun 20 Q1</t>
-  </si>
-  <si>
-    <t>Sep 20 Q2</t>
-  </si>
-  <si>
-    <t>Dec 20 Q3</t>
-  </si>
-  <si>
-    <t>Mar 21 Q4</t>
-  </si>
-  <si>
-    <t>Jun 21 Q1</t>
-  </si>
-  <si>
-    <t>Sep 21 Q2</t>
-  </si>
-  <si>
-    <t>Dec 21 Q3</t>
-  </si>
-  <si>
-    <t>Mar 22 Q4</t>
-  </si>
-  <si>
-    <t>Jun 22 Q1</t>
-  </si>
-  <si>
-    <t>Sep 22 Q2</t>
-  </si>
-  <si>
-    <t>Dec 22 Q3</t>
-  </si>
-  <si>
-    <t>Mar 23 Q4</t>
-  </si>
-  <si>
-    <t>Jun 23 Q1</t>
-  </si>
-  <si>
-    <t>Sep 23 Q2</t>
-  </si>
-  <si>
-    <t>Dec 23 Q3</t>
-  </si>
-  <si>
-    <t>Mar 24 Q4</t>
-  </si>
-  <si>
-    <t>Jun 24 Q1</t>
-  </si>
-  <si>
-    <t>Sep 24 Q2</t>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
   <si>
     <t>Key Financial Ratios of Affle India(in Rs. Cr.)</t>
@@ -2280,13 +2256,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,19 +2279,19 @@
         <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>62</v>
@@ -2350,64 +2326,70 @@
       <c r="U1" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2">
         <v>27.53</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>27.53</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>4.2</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>1.01</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>17.55</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>4.77</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.73</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>5.5</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.19</v>
-      </c>
-      <c r="K2">
-        <v>5.31</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
       </c>
       <c r="M2">
         <v>5.31</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>5.31</v>
+      </c>
+      <c r="P2">
         <v>1.38</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>3.93</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>3.93</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>24.29</v>
-      </c>
-      <c r="R2">
-        <v>1.62</v>
-      </c>
-      <c r="S2">
-        <v>1.62</v>
       </c>
       <c r="T2">
         <v>1.62</v>
@@ -2415,64 +2397,70 @@
       <c r="U2">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2">
+        <v>1.62</v>
+      </c>
+      <c r="W2">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3">
         <v>34.74</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>34.74</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>5.38</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>1.01</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>20.46</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>7.89</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>8.890000000000001</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.09</v>
-      </c>
-      <c r="K3">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
       <c r="M3">
         <v>8.800000000000001</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="P3">
         <v>2.62</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>6.18</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>6.18</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>24.29</v>
-      </c>
-      <c r="R3">
-        <v>2.55</v>
-      </c>
-      <c r="S3">
-        <v>2.55</v>
       </c>
       <c r="T3">
         <v>2.55</v>
@@ -2480,194 +2468,212 @@
       <c r="U3">
         <v>2.55</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3">
+        <v>2.55</v>
+      </c>
+      <c r="W3">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4">
         <v>29.84</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>29.84</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>5.43</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>1.42</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>18.01</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>4.92</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>1.16</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>6.09</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.06</v>
-      </c>
-      <c r="K4">
-        <v>6.02</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
       </c>
       <c r="M4">
         <v>6.02</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>6.02</v>
+      </c>
+      <c r="P4">
         <v>1.78</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>4.25</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>4.25</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>24.29</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5">
         <v>30.41</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>30.41</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>5.82</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>1.08</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>16.92</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>6.59</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1.72</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>8.31</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.04</v>
-      </c>
-      <c r="K5">
-        <v>8.27</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
       </c>
       <c r="M5">
         <v>8.27</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>8.27</v>
+      </c>
+      <c r="P5">
         <v>2.05</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>6.22</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>6.22</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>24.29</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>2.56</v>
-      </c>
-      <c r="S5">
-        <v>2.56</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
       </c>
       <c r="U5">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6">
         <v>49.23</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>49.23</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>6.71</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>1.11</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>31.88</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>9.539999999999999</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>2.32</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>11.85</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.1</v>
-      </c>
-      <c r="K6">
-        <v>11.76</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
       </c>
       <c r="M6">
         <v>11.76</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>11.76</v>
+      </c>
+      <c r="P6">
         <v>2.95</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>8.81</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>8.81</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>25.5</v>
-      </c>
-      <c r="R6">
-        <v>3.57</v>
-      </c>
-      <c r="S6">
-        <v>3.57</v>
       </c>
       <c r="T6">
         <v>3.57</v>
@@ -2675,64 +2681,70 @@
       <c r="U6">
         <v>3.57</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6">
+        <v>3.57</v>
+      </c>
+      <c r="W6">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7">
         <v>53.04</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>53.04</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>5.87</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1.5</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>34.08</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>11.6</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>3.31</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>14.91</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.1</v>
-      </c>
-      <c r="K7">
-        <v>14.81</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
       </c>
       <c r="M7">
         <v>14.81</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>14.81</v>
+      </c>
+      <c r="P7">
         <v>3.73</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>11.08</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>11.08</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>25.5</v>
-      </c>
-      <c r="R7">
-        <v>4.44</v>
-      </c>
-      <c r="S7">
-        <v>4.44</v>
       </c>
       <c r="T7">
         <v>4.44</v>
@@ -2740,64 +2752,70 @@
       <c r="U7">
         <v>4.44</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7">
+        <v>4.44</v>
+      </c>
+      <c r="W7">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8">
         <v>43.39</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>44.7</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>5.79</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>1.73</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>30.56</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>6.63</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>2.63</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>9.26</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.08</v>
-      </c>
-      <c r="K8">
-        <v>9.18</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
       </c>
       <c r="M8">
         <v>9.18</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>9.18</v>
+      </c>
+      <c r="P8">
         <v>2.4</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>6.78</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>6.78</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>25.5</v>
-      </c>
-      <c r="R8">
-        <v>2.7</v>
-      </c>
-      <c r="S8">
-        <v>2.7</v>
       </c>
       <c r="T8">
         <v>2.7</v>
@@ -2805,64 +2823,70 @@
       <c r="U8">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8">
+        <v>2.7</v>
+      </c>
+      <c r="W8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9">
         <v>42.26</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>42.26</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>6.32</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>1.82</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>32.05</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>2.08</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>2.79</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>4.87</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K9">
-        <v>4.8</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
       </c>
       <c r="M9">
         <v>4.8</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>4.8</v>
+      </c>
+      <c r="P9">
         <v>1.24</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>3.56</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>3.56</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>25.5</v>
-      </c>
-      <c r="R9">
-        <v>1.4</v>
-      </c>
-      <c r="S9">
-        <v>1.4</v>
       </c>
       <c r="T9">
         <v>1.4</v>
@@ -2870,64 +2894,70 @@
       <c r="U9">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9">
+        <v>1.4</v>
+      </c>
+      <c r="W9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10">
         <v>72.65000000000001</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>72.65000000000001</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>7.59</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>1.59</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>54.57</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>8.9</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>1.03</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>9.93</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.15</v>
-      </c>
-      <c r="K10">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
       </c>
       <c r="M10">
         <v>9.779999999999999</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="P10">
         <v>2.5</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>7.29</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>7.29</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>25.5</v>
-      </c>
-      <c r="R10">
-        <v>2.86</v>
-      </c>
-      <c r="S10">
-        <v>2.86</v>
       </c>
       <c r="T10">
         <v>2.86</v>
@@ -2935,64 +2965,70 @@
       <c r="U10">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10">
+        <v>2.86</v>
+      </c>
+      <c r="W10">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11">
         <v>78.31999999999999</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>78.31999999999999</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>9.24</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>1.58</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>58.7</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>8.81</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.26</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>9.07</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K11">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
       </c>
       <c r="M11">
         <v>9</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
         <v>2.31</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>6.69</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>6.69</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>25.5</v>
-      </c>
-      <c r="R11">
-        <v>2.62</v>
-      </c>
-      <c r="S11">
-        <v>2.62</v>
       </c>
       <c r="T11">
         <v>2.62</v>
@@ -3000,64 +3036,70 @@
       <c r="U11">
         <v>2.62</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11">
+        <v>2.62</v>
+      </c>
+      <c r="W11">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12">
         <v>72.23</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>72.23</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>8.640000000000001</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>1.58</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>49.59</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>12.41</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>3.64</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>16.05</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K12">
-        <v>15.98</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
       </c>
       <c r="M12">
         <v>15.98</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.98</v>
+      </c>
+      <c r="P12">
         <v>5.29</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>10.69</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>10.69</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>25.5</v>
-      </c>
-      <c r="R12">
-        <v>4.19</v>
-      </c>
-      <c r="S12">
-        <v>4.19</v>
       </c>
       <c r="T12">
         <v>4.19</v>
@@ -3065,64 +3107,70 @@
       <c r="U12">
         <v>4.19</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12">
+        <v>4.19</v>
+      </c>
+      <c r="W12">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13">
         <v>81.84999999999999</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>81.84999999999999</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>9.91</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>1.48</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>57.86</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>12.6</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>6.61</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>19.21</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.12</v>
-      </c>
-      <c r="K13">
-        <v>19.1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
       </c>
       <c r="M13">
         <v>19.1</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>19.1</v>
+      </c>
+      <c r="P13">
         <v>4.18</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>14.91</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>14.91</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>26.65</v>
-      </c>
-      <c r="R13">
-        <v>5.68</v>
-      </c>
-      <c r="S13">
-        <v>5.68</v>
       </c>
       <c r="T13">
         <v>5.68</v>
@@ -3130,64 +3178,70 @@
       <c r="U13">
         <v>5.68</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13">
+        <v>5.68</v>
+      </c>
+      <c r="W13">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14">
         <v>95.97</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>95.97</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>10.25</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>2.03</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>73.03</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>10.66</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>10.39</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>21.05</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>0.12</v>
-      </c>
-      <c r="K14">
-        <v>20.93</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
       </c>
       <c r="M14">
         <v>20.93</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>20.93</v>
+      </c>
+      <c r="P14">
         <v>5.1</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>15.83</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>15.83</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>26.65</v>
-      </c>
-      <c r="R14">
-        <v>5.99</v>
-      </c>
-      <c r="S14">
-        <v>5.99</v>
       </c>
       <c r="T14">
         <v>5.99</v>
@@ -3195,64 +3249,70 @@
       <c r="U14">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14">
+        <v>5.99</v>
+      </c>
+      <c r="W14">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15">
+        <v>111.27</v>
+      </c>
+      <c r="E15">
+        <v>111.27</v>
+      </c>
+      <c r="F15">
+        <v>12.27</v>
+      </c>
+      <c r="G15">
+        <v>1.96</v>
+      </c>
+      <c r="H15">
         <v>86</v>
       </c>
-      <c r="B15">
-        <v>111.27</v>
-      </c>
-      <c r="C15">
-        <v>111.27</v>
-      </c>
-      <c r="D15">
-        <v>12.27</v>
-      </c>
-      <c r="E15">
-        <v>1.96</v>
-      </c>
-      <c r="F15">
-        <v>86</v>
-      </c>
-      <c r="G15">
+      <c r="I15">
         <v>11.03</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>6.44</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>17.47</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>0.08</v>
-      </c>
-      <c r="K15">
-        <v>17.4</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
       </c>
       <c r="M15">
         <v>17.4</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>17.4</v>
+      </c>
+      <c r="P15">
         <v>4.93</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>12.47</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>12.47</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>26.65</v>
-      </c>
-      <c r="R15">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="S15">
-        <v>0.9399999999999999</v>
       </c>
       <c r="T15">
         <v>0.9399999999999999</v>
@@ -3260,64 +3320,70 @@
       <c r="U15">
         <v>0.9399999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W15">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16">
         <v>108.44</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>108.44</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>11.74</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>1.81</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>83.89</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>11</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>7.74</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>18.74</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.34</v>
-      </c>
-      <c r="K16">
-        <v>18.4</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
       </c>
       <c r="M16">
         <v>18.4</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>18.4</v>
+      </c>
+      <c r="P16">
         <v>5.06</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>13.34</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>13.34</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>26.65</v>
-      </c>
-      <c r="R16">
-        <v>1.01</v>
-      </c>
-      <c r="S16">
-        <v>1.01</v>
       </c>
       <c r="T16">
         <v>1.01</v>
@@ -3325,64 +3391,70 @@
       <c r="U16">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16">
+        <v>1.01</v>
+      </c>
+      <c r="W16">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17">
         <v>105.16</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>105.16</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>11.74</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>1.7</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>81.16</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>10.57</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>3.6</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>14.17</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K17">
-        <v>14.09</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
       </c>
       <c r="M17">
         <v>14.09</v>
       </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>14.09</v>
+      </c>
+      <c r="P17">
         <v>3.81</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>10.29</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>10.29</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>26.64</v>
-      </c>
-      <c r="R17">
-        <v>0.77</v>
-      </c>
-      <c r="S17">
-        <v>0.77</v>
       </c>
       <c r="T17">
         <v>0.77</v>
@@ -3390,64 +3462,70 @@
       <c r="U17">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17">
+        <v>0.77</v>
+      </c>
+      <c r="W17">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18">
         <v>115.86</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>115.86</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>11.19</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>1.93</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>87.72</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>15.03</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>5.03</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>20.06</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K18">
-        <v>19.99</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
       </c>
       <c r="M18">
         <v>19.99</v>
       </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>19.99</v>
+      </c>
+      <c r="P18">
         <v>5.18</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>14.81</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>14.81</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>26.64</v>
-      </c>
-      <c r="R18">
-        <v>1.11</v>
-      </c>
-      <c r="S18">
-        <v>1.11</v>
       </c>
       <c r="T18">
         <v>1.11</v>
@@ -3455,64 +3533,70 @@
       <c r="U18">
         <v>1.11</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18">
+        <v>1.11</v>
+      </c>
+      <c r="W18">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19">
         <v>137.27</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>137.27</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>12.13</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>2.01</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>101.28</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>21.86</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>6.88</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>28.74</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0.01</v>
-      </c>
-      <c r="K19">
-        <v>28.73</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
       </c>
       <c r="M19">
         <v>28.73</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>28.73</v>
+      </c>
+      <c r="P19">
         <v>7.25</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>21.48</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>21.48</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>26.64</v>
-      </c>
-      <c r="R19">
-        <v>1.61</v>
-      </c>
-      <c r="S19">
-        <v>1.61</v>
       </c>
       <c r="T19">
         <v>1.61</v>
@@ -3520,64 +3604,70 @@
       <c r="U19">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19">
+        <v>1.61</v>
+      </c>
+      <c r="W19">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20">
         <v>136.5</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>136.5</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>11.88</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>1.8</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>102.6</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>20.22</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>7.06</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>27.28</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>0.05</v>
-      </c>
-      <c r="K20">
-        <v>27.23</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
       </c>
       <c r="M20">
         <v>27.23</v>
       </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>27.23</v>
+      </c>
+      <c r="P20">
         <v>6.92</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>20.31</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>20.31</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>26.64</v>
-      </c>
-      <c r="R20">
-        <v>1.52</v>
-      </c>
-      <c r="S20">
-        <v>1.52</v>
       </c>
       <c r="T20">
         <v>1.52</v>
@@ -3585,64 +3675,70 @@
       <c r="U20">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20">
+        <v>1.52</v>
+      </c>
+      <c r="W20">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21">
         <v>137.13</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>137.13</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>12.51</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>2.02</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>107</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>15.61</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>5.39</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>20.99</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>0.06</v>
-      </c>
-      <c r="K21">
-        <v>20.93</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
       </c>
       <c r="M21">
         <v>20.93</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>20.93</v>
+      </c>
+      <c r="P21">
         <v>5.35</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>15.58</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>15.58</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>26.64</v>
-      </c>
-      <c r="R21">
-        <v>1.17</v>
-      </c>
-      <c r="S21">
-        <v>1.17</v>
       </c>
       <c r="T21">
         <v>1.17</v>
@@ -3650,64 +3746,70 @@
       <c r="U21">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21">
+        <v>1.17</v>
+      </c>
+      <c r="W21">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22">
         <v>133.83</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>133.83</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>11.58</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>2.05</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>101.03</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>19.17</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>5.4</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>24.58</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>0.19</v>
-      </c>
-      <c r="K22">
-        <v>24.39</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
       </c>
       <c r="M22">
         <v>24.39</v>
       </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>24.39</v>
+      </c>
+      <c r="P22">
         <v>6.22</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>18.17</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>18.17</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>26.64</v>
-      </c>
-      <c r="R22">
-        <v>1.36</v>
-      </c>
-      <c r="S22">
-        <v>1.36</v>
       </c>
       <c r="T22">
         <v>1.36</v>
@@ -3715,64 +3817,70 @@
       <c r="U22">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22">
+        <v>1.36</v>
+      </c>
+      <c r="W22">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23">
         <v>139.32</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>139.32</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>13.44</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>1.93</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>109</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>14.95</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>10.1</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>25.04</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>0.19</v>
-      </c>
-      <c r="K23">
-        <v>24.86</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
       </c>
       <c r="M23">
         <v>24.86</v>
       </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>24.86</v>
+      </c>
+      <c r="P23">
         <v>6.35</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>18.51</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>18.51</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>28.02</v>
-      </c>
-      <c r="R23">
-        <v>1.38</v>
-      </c>
-      <c r="S23">
-        <v>1.38</v>
       </c>
       <c r="T23">
         <v>1.38</v>
@@ -3780,64 +3888,70 @@
       <c r="U23">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23">
+        <v>1.38</v>
+      </c>
+      <c r="W23">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24">
         <v>155.72</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>155.72</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>13.52</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>2.12</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>123.8</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>16.28</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>15.43</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>31.71</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>0.24</v>
-      </c>
-      <c r="K24">
-        <v>31.48</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
       </c>
       <c r="M24">
         <v>31.48</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>31.48</v>
+      </c>
+      <c r="P24">
         <v>7.78</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>23.69</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>23.69</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>28.02</v>
-      </c>
-      <c r="R24">
-        <v>1.75</v>
-      </c>
-      <c r="S24">
-        <v>1.75</v>
       </c>
       <c r="T24">
         <v>1.75</v>
@@ -3845,64 +3959,70 @@
       <c r="U24">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24">
+        <v>1.75</v>
+      </c>
+      <c r="W24">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25">
         <v>163.15</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>163.15</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>14.12</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>1.78</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>123.54</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>23.72</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>14.49</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>38.2</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>0.26</v>
-      </c>
-      <c r="K25">
-        <v>37.95</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
       </c>
       <c r="M25">
         <v>37.95</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>37.95</v>
+      </c>
+      <c r="P25">
         <v>9.779999999999999</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>28.17</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>28.17</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>28.03</v>
-      </c>
-      <c r="R25">
-        <v>2.01</v>
-      </c>
-      <c r="S25">
-        <v>2.01</v>
       </c>
       <c r="T25">
         <v>2.01</v>
@@ -3910,69 +4030,81 @@
       <c r="U25">
         <v>2.01</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25">
+        <v>2.01</v>
+      </c>
+      <c r="W25">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26">
         <v>176.1</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>176.1</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>12.65</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>2.06</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>139.25</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>22.14</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>14.51</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>36.64</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>0.25</v>
-      </c>
-      <c r="K26">
-        <v>36.39</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
       </c>
       <c r="M26">
         <v>36.39</v>
       </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>36.39</v>
+      </c>
+      <c r="P26">
         <v>9.16</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>27.23</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>27.23</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>28.04</v>
-      </c>
-      <c r="R26">
-        <v>1.94</v>
-      </c>
-      <c r="S26">
-        <v>1.94</v>
       </c>
       <c r="T26">
         <v>1.94</v>
       </c>
       <c r="U26">
+        <v>1.94</v>
+      </c>
+      <c r="V26">
+        <v>1.94</v>
+      </c>
+      <c r="W26">
         <v>1.94</v>
       </c>
     </row>
@@ -3991,58 +4123,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:18">
